--- a/src/themes/Talim_muassasalarida_psixologik_xizmat.xlsx
+++ b/src/themes/Talim_muassasalarida_psixologik_xizmat.xlsx
@@ -1,41 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uvays\Projects\oxscraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC2C26-B3FE-4133-9F15-7EC6BB47B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7C8761F-E580-43FE-9F77-22AA5CB0E969}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk131847155" localSheetId="0">Sheet1!$A$45</definedName>
-    <definedName name="_Hlk131848200" localSheetId="0">Sheet1!$B$82</definedName>
-    <definedName name="_Hlk131849018" localSheetId="0">Sheet1!$D$54</definedName>
-    <definedName name="_Hlk131849267" localSheetId="0">Sheet1!$B$54</definedName>
+    <definedName localSheetId="0" name="_Hlk131848200">Sheet1!$B$82</definedName>
+    <definedName localSheetId="0" name="_Hlk131847155">Sheet1!$A$45</definedName>
+    <definedName localSheetId="0" name="_Hlk131849267">Sheet1!$B$54</definedName>
+    <definedName localSheetId="0" name="_Hlk131849018">Sheet1!$D$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -63,48 +39,48 @@
     <t>Psixologik xizmat tizimida kimlar xizmat ko`rsatadi?</t>
   </si>
   <si>
+    <t>pedagoglar</t>
+  </si>
+  <si>
+    <t>Masul xodim</t>
+  </si>
+  <si>
     <t>psixologlar</t>
   </si>
   <si>
-    <t>pedagoglar</t>
-  </si>
-  <si>
-    <t>Masul xodim</t>
-  </si>
-  <si>
     <t>Muassasa rahbari</t>
   </si>
   <si>
     <t xml:space="preserve">Psixologik xizmat qaysi ijtimoiy sohalarda tashkil etiladi? </t>
   </si>
   <si>
+    <t>Faqat ta’limda</t>
+  </si>
+  <si>
     <t>sog‘liqni saqlash, ta’lim, ishlab chiqarish</t>
   </si>
   <si>
-    <t>Faqat ta’limda</t>
+    <t>OAV talarida</t>
   </si>
   <si>
     <t>Faqat xizmat ko`rsatishda</t>
   </si>
   <si>
-    <t>OAV talarida</t>
-  </si>
-  <si>
     <t>Psixologik xizmatning asosiy maqsadi?</t>
   </si>
   <si>
+    <t>Xodimlar sog`lig`ini saqlash</t>
+  </si>
+  <si>
+    <t>Korxonada tartib saqlash</t>
+  </si>
+  <si>
+    <t>Muasssasa foydasini oshirish</t>
+  </si>
+  <si>
     <t xml:space="preserve">Insonlarga psixologik yordam ko‘rsatish </t>
   </si>
   <si>
-    <t>Korxonada tartib saqlash</t>
-  </si>
-  <si>
-    <t>Xodimlar sog`lig`ini saqlash</t>
-  </si>
-  <si>
-    <t>Muasssasa foydasini oshirish</t>
-  </si>
-  <si>
     <t>I.V.Dubrovinaning ta`kidiga ko`ra psixologik xizmatning 3 ta jabxasini ajratib ko`rsating?</t>
   </si>
   <si>
@@ -123,60 +99,60 @@
     <t>Ta`lim muassasalaridagi psixologik xizmatning maqsadi?</t>
   </si>
   <si>
+    <t>tibbiyot xodimalari psixologik holatini yaxshilash</t>
+  </si>
+  <si>
+    <t>Muassasa xodimlari sog`ligini taminlash</t>
+  </si>
+  <si>
+    <t>faqat maktabgacha yoshidagi bolalarning psixologik salomatligini ta`minlash</t>
+  </si>
+  <si>
     <t>maktabgacha va maktab yoshidagi bolalarning psixologik salomatligini ta`minlash</t>
   </si>
   <si>
-    <t>tibbiyot xodimalari psixologik holatini yaxshilash</t>
-  </si>
-  <si>
-    <t>faqat maktabgacha yoshidagi bolalarning psixologik salomatligini ta`minlash</t>
-  </si>
-  <si>
-    <t>Muassasa xodimlari sog`ligini taminlash</t>
-  </si>
-  <si>
     <t>Ta’lim muassasalarida psixologik xizmat fanining predmeti?</t>
   </si>
   <si>
     <t>aholiga psixologik yordam ko`rsatishning o`ziga xos xususiyatlari, turlari, shakllari va ularning mazmunini tadqiq etish</t>
   </si>
   <si>
+    <t xml:space="preserve">psixologik maslahat berish </t>
+  </si>
+  <si>
     <t>psixologik yordamga muhtoj qatlamni to`g`ri belgilash</t>
   </si>
   <si>
     <t>psixologik yordamni amalga oshiruvchi sub`ektlarni o`z kasbiga mosligini ta`minlovchi talablarni ishlab chiqish</t>
   </si>
   <si>
-    <t xml:space="preserve">psixologik maslahat berish </t>
-  </si>
-  <si>
     <t>Psixologik xizmat ko`rsatish dastlab qachon qayerda yuzaga kelgan?</t>
   </si>
   <si>
+    <t>Rossiyada 1910 yillarda</t>
+  </si>
+  <si>
+    <t>Markaziy Osiyoda XIX asrda</t>
+  </si>
+  <si>
+    <t>Italiyada 1966 yil</t>
+  </si>
+  <si>
     <t>AQShda 1800 yillarda</t>
   </si>
   <si>
-    <t>Rossiyada 1910 yillarda</t>
-  </si>
-  <si>
-    <t>Markaziy Osiyoda XIX asrda</t>
-  </si>
-  <si>
-    <t>Italiyada 1966 yil</t>
-  </si>
-  <si>
     <t>Fransuz maktab psixologiyasining otasi?</t>
   </si>
   <si>
+    <t xml:space="preserve">A.Simon </t>
+  </si>
+  <si>
     <t>Alfred Bine</t>
   </si>
   <si>
     <t>Jon Lok</t>
   </si>
   <si>
-    <t xml:space="preserve">A.Simon </t>
-  </si>
-  <si>
     <t>S.Lazurskiy</t>
   </si>
   <si>
@@ -186,15 +162,15 @@
     <t xml:space="preserve">Estoniyada </t>
   </si>
   <si>
+    <t>Qozog`istonda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belorusiyada </t>
+  </si>
+  <si>
     <t xml:space="preserve">O`zbekistonda </t>
   </si>
   <si>
-    <t>Qozog`istonda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belorusiyada </t>
-  </si>
-  <si>
     <t xml:space="preserve">Psixologik xizmat haqida Nizomning bo`limlariga kirmaydigan javobni toping? </t>
   </si>
   <si>
@@ -204,69 +180,69 @@
     <t xml:space="preserve">Psixoprofilaktik ishlar </t>
   </si>
   <si>
+    <t xml:space="preserve">Umumiy qoidalar </t>
+  </si>
+  <si>
     <t xml:space="preserve">Psixodiagnostik ishlar </t>
   </si>
   <si>
-    <t xml:space="preserve">Umumiy qoidalar </t>
-  </si>
-  <si>
     <t>Maktabgacha yoshdagi bolalarni psixologik tekshirish necha bosqichda amalga oshiriladi?</t>
   </si>
   <si>
     <t>Bola psixik salomatligini saqlash maqsadida psixologga psixoprofilaktik tadbirlarni qay tarzda o`tkazish tavsiya etiladi?</t>
   </si>
   <si>
+    <t>psixokorrektsiya</t>
+  </si>
+  <si>
     <t>psixogimnastika</t>
   </si>
   <si>
-    <t>psixokorrektsiya</t>
+    <t>debrifing</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>debrifing</t>
-  </si>
-  <si>
     <t>Internat tipidagi muassasalarda psixolog faoliyati nega o‘ziga xos hisoblanadi?</t>
   </si>
   <si>
     <t>bolalarda psixik va emotsional deprivatsiya kuzatiladi</t>
   </si>
   <si>
+    <t>bolalari sho`x bo`lagi uchun</t>
+  </si>
+  <si>
     <t xml:space="preserve">bolalarda intelektual salohiyat kuchli </t>
   </si>
   <si>
-    <t>bolalari sho`x bo`lagi uchun</t>
-  </si>
-  <si>
     <t>tartib intizom kuchli bo`lgani uchun</t>
   </si>
   <si>
     <t>Qaysi qatorda psixologik ishlarning xato javob variant berilgan?</t>
   </si>
   <si>
+    <t>psixoprofilaktika</t>
+  </si>
+  <si>
+    <t>diagnostik ish</t>
+  </si>
+  <si>
     <t>testologiya</t>
   </si>
   <si>
-    <t>psixoprofilaktika</t>
-  </si>
-  <si>
-    <t>diagnostik ish</t>
-  </si>
-  <si>
     <t>Psixolog shaxsiga berilgan tog`ri tariff?</t>
   </si>
   <si>
+    <t>ishlab chiqarish sohassida xizmat qiluvchi jonkuyar inson</t>
+  </si>
+  <si>
+    <t>oson kasbiy faoliyat sohasida ish olib boruvchi aqlli, hayrihoh, o`ziga maftun etuvchi inson</t>
+  </si>
+  <si>
     <t>murakkab kasbiy faoliyat sohasida ish olib boruvchi aqlli, hayrihoh, o`ziga maftun etuvchi inson</t>
   </si>
   <si>
-    <t>oson kasbiy faoliyat sohasida ish olib boruvchi aqlli, hayrihoh, o`ziga maftun etuvchi inson</t>
-  </si>
-  <si>
-    <t>ishlab chiqarish sohassida xizmat qiluvchi jonkuyar inson</t>
-  </si>
-  <si>
     <t>Bolalar sifatli talim olishi uchun fanini vijdonan o`tadigan shaxs</t>
   </si>
   <si>
@@ -276,30 +252,30 @@
     <t>P.P.Zimin, V.A.Tokareva, M.Sh.Rasuleva, M.Dadajonovlar</t>
   </si>
   <si>
+    <t xml:space="preserve">P.P.Zimin, V.A.Tokareva, Alfred Bine S.Lazurskiy </t>
+  </si>
+  <si>
+    <t>M.Sh.Rasuleva, M.Dadajonovlar Jon Lok A.Simon</t>
+  </si>
+  <si>
     <t>Alfred Bine S.Lazurskiy Jon Lok A.Simon</t>
   </si>
   <si>
-    <t>M.Sh.Rasuleva, M.Dadajonovlar Jon Lok A.Simon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P.P.Zimin, V.A.Tokareva, Alfred Bine S.Lazurskiy </t>
-  </si>
-  <si>
     <t xml:space="preserve">1966 yilda Chirchiq shahrida qanday muammolarga oid olib borilgan izlanishlarni alohida qayd etish mumkin </t>
   </si>
   <si>
+    <t>aqliy taraqqiyot muammolariga oid</t>
+  </si>
+  <si>
     <t>axloqiy tarbiyaga oid</t>
   </si>
   <si>
+    <t xml:space="preserve">yoshlardagi temperament tipaga oid </t>
+  </si>
+  <si>
     <t>oilaviy tarbiyaga oid</t>
   </si>
   <si>
-    <t>aqliy taraqqiyot muammolariga oid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yoshlardagi temperament tipaga oid </t>
-  </si>
-  <si>
     <t xml:space="preserve">1973 yilda Andijonda qanday muammolariga oid olib borilgan izlanishlarni alohida qayd etish mumkin </t>
   </si>
   <si>
@@ -312,36 +288,39 @@
     <t>1989 yilda Nizomiy nomli TDPIda nima sababdan amaliyotchi psixologlar tayyorlash fakulteti ochildi</t>
   </si>
   <si>
+    <t>pedagoklarga bilim berish uchun</t>
+  </si>
+  <si>
+    <t>amaliy psixologlarning ish yuklamasini kamaytrish maqsadida</t>
+  </si>
+  <si>
     <t>amaliyotchi psixologlarning yetishmasligi sababli</t>
   </si>
   <si>
     <t>psixologlarni oylik maoshini yaxshilash maqsadida</t>
   </si>
   <si>
-    <t>amaliy psixologlarning ish yuklamasini kamaytrish maqsadida</t>
-  </si>
-  <si>
-    <t>pedagoklarga bilim berish uchun</t>
-  </si>
-  <si>
     <t>"Ta’lim tizimida va ishlab chiqarishda psixologik xizmatni tashkil etishning psixologik xususiyatlari" mavzusida doktorlik dissertasiyasini yoqlagan olim kim</t>
   </si>
   <si>
+    <t>M.G.Davletshin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G‘.B.Shoumarov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.G‘.G‘oziev </t>
+  </si>
+  <si>
     <t>Sh.R.Baratov</t>
   </si>
   <si>
-    <t xml:space="preserve">E.G‘.G‘oziev </t>
-  </si>
-  <si>
-    <t>M.G.Davletshin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G‘.B.Shoumarov </t>
-  </si>
-  <si>
     <t xml:space="preserve">1998 yilda Sh.R.Baratov qaysi mavzuda doktorlik dissertasiyasini yoqlagan </t>
   </si>
   <si>
+    <t>“Shaxs mahsuldorligini oshirishda individual xususiyatlarning roli”</t>
+  </si>
+  <si>
     <t>"Ta’lim tizimida va ishlab chiqarishda psixologik xizmatni tashkil etishning psixologik xususiyatlari"</t>
   </si>
   <si>
@@ -351,15 +330,15 @@
     <t>“Psixologik xizmat ko`rsatishning shar-sharoitlari”</t>
   </si>
   <si>
-    <t>“Shaxs mahsuldorligini oshirishda individual xususiyatlarning roli”</t>
-  </si>
-  <si>
     <t>Psixologik xizmat haqida Nizom(1996 y) necha bo‘limdan iborat</t>
   </si>
   <si>
     <t>Ushbu yo‘nalishning asosiy vazifalari har bir yosh bosqichida komil shaxs sifatida etilishi, aqlan barkamolligini ta’minlashning shart- sharoitini yaratish. Qaysi yo`nalish bu?</t>
   </si>
   <si>
+    <t xml:space="preserve">Psixologning maslahat bеrish ishlari </t>
+  </si>
+  <si>
     <t>Psixoprofilaktika ishlari</t>
   </si>
   <si>
@@ -369,9 +348,6 @@
     <t xml:space="preserve">Rivojlantiruvchi va korrеksion ishlar </t>
   </si>
   <si>
-    <t xml:space="preserve">Psixologning maslahat bеrish ishlari </t>
-  </si>
-  <si>
     <t>Bolalarning voyaga etganlar va tengqurlari bilan munosabatini o‘rganish uchun ularni tekshiradi. Bu qaysi yo`nalish</t>
   </si>
   <si>
@@ -381,33 +357,33 @@
     <t>Psixolog kabineti qaysi qavatda joylashishi maqsadga muvofiq?</t>
   </si>
   <si>
+    <t>2-qavatidan</t>
+  </si>
+  <si>
+    <t>3-qavatidan</t>
+  </si>
+  <si>
     <t>1-qavatidan</t>
   </si>
   <si>
-    <t>2-qavatidan</t>
-  </si>
-  <si>
-    <t>3-qavatidan</t>
-  </si>
-  <si>
     <t>4-qavatidan</t>
   </si>
   <si>
     <t xml:space="preserve">Maxsus hujjatlar asosida tibbiy, pedagogik va asosida oilaviy anamnez to`plash ishlari amalga oshiriladi.Bu maktabgacha yoshdagi bolalarni psixologik tekshirish ning nechinchi bosqichida amalga oshiriladi </t>
   </si>
   <si>
+    <t>4-bosqichda</t>
+  </si>
+  <si>
+    <t>3-bosqichda</t>
+  </si>
+  <si>
+    <t>2-bosqichda</t>
+  </si>
+  <si>
     <t>1-bosqichda</t>
   </si>
   <si>
-    <t>2-bosqichda</t>
-  </si>
-  <si>
-    <t>3-bosqichda</t>
-  </si>
-  <si>
-    <t>4-bosqichda</t>
-  </si>
-  <si>
     <t>kuzatish,suhbat,ijod natijalarini tahlil qilish jarayonida bola bilan tanishiladi. Bu maktabgacha yoshdagi bolalarni psixologik tekshirish ning nechinchi bosqichida amalga oshiriladi</t>
   </si>
   <si>
@@ -423,12 +399,12 @@
     <t>tarbiyalanuvchilar psixik rivojlanishini tekshiradi</t>
   </si>
   <si>
+    <t xml:space="preserve">pedagogik jamoa a`zolariga bolalarning ta`lim-tarbiyasi masalalari bo`yicha konsultatsiya beradi </t>
+  </si>
+  <si>
     <t xml:space="preserve">korrektsion dasturni amalga oshiradi </t>
   </si>
   <si>
-    <t xml:space="preserve">pedagogik jamoa a`zolariga bolalarning ta`lim-tarbiyasi masalalari bo`yicha konsultatsiya beradi </t>
-  </si>
-  <si>
     <t>Diagnostik ish bu?</t>
   </si>
   <si>
@@ -447,12 +423,12 @@
     <t xml:space="preserve">xarakter haqidagi, xarakterning mohiyati, strukturasi, tarkib topishi va rivojlanishi haqidagi ta’limot. </t>
   </si>
   <si>
+    <t xml:space="preserve">nerv hujayralarining tezlik bilan qo‘zg‘alish holatidan tormozlanish va tormozlanishdan qo‘zg‘alish holatiga o‘tish xususiyati. </t>
+  </si>
+  <si>
     <t xml:space="preserve">birovning iltimos, maslahat, talab va ko‘rsatmalariga nisbatan asossiz ravishda qarshilik ko‘rsatishdan iborat salbiy xarakter xislatlari. </t>
   </si>
   <si>
-    <t xml:space="preserve">nerv hujayralarining tezlik bilan qo‘zg‘alish holatidan tormozlanish va tormozlanishdan qo‘zg‘alish holatiga o‘tish xususiyati. </t>
-  </si>
-  <si>
     <t>Xarakterologiya bu?</t>
   </si>
   <si>
@@ -486,12 +462,12 @@
     <t>Giperkinez xulq atvorning qanday kurinishi?</t>
   </si>
   <si>
+    <t>turli ta’sirlarga nisbatan sezgilarning tez va kuchli qo‘zg‘alishi</t>
+  </si>
+  <si>
     <t>nerv sistemasining kasallanish tufayli ro‘y beradigan haddan tashqari ixtiyorsiz gavda harakatlari.</t>
   </si>
   <si>
-    <t>turli ta’sirlarga nisbatan sezgilarning tez va kuchli qo‘zg‘alishi</t>
-  </si>
-  <si>
     <t>xarakter aksentuatsiyasini individual yondoshish, oilaviy psixoterapiya turini topishga yordam beradi</t>
   </si>
   <si>
@@ -549,85 +525,105 @@
     <t>Odam xarakteri bir qator omillar ta’sirida shakllanadi. Bular quyidagilardir</t>
   </si>
   <si>
+    <t>Nerv sistemasi temperament</t>
+  </si>
+  <si>
+    <t>Tarbiya Ta’lim Fiziologiya Nerv sistemasi</t>
+  </si>
+  <si>
+    <t>Nerv sistemasi Asab tolalalari Bosh miya kata yarim sharlari</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ijtimoiy muhit Tarbiya Oila o‘z-o‘zinitarbiyalash maktab jamoasi </t>
   </si>
   <si>
-    <t>Nerv sistemasi temperament</t>
-  </si>
-  <si>
-    <t>Tarbiya Ta’lim Fiziologiya Nerv sistemasi</t>
-  </si>
-  <si>
-    <t>Nerv sistemasi Asab tolalalari Bosh miya kata yarim sharlari</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
       <t>«Men kimman?» mashqi</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> maqsadi nimadan iborat? </t>
     </r>
   </si>
   <si>
+    <t>ishtirokchilarda xayotiy maqsadlarini anglash, qayta tiklash orqali Inqirozli vaziyatlarda ruxiy bardoshlilik ko`nikmasini rivojlantirish</t>
+  </si>
+  <si>
+    <t>mashqning maqsadi ishtirokchilarda o`tmishdagi baxtsizliklar uchun javobgarlikni o`zi va xayotiy vaziyatlar o`rtasida to`g`ri taqsimlash</t>
+  </si>
+  <si>
+    <t>ishtirokchilarning o`z xayoti mazmunini anglashi jarayonida kelib chiqadigan ichki qarama- qarshiliklarni engib o`tish ko`nikmasini rivojlantirish</t>
+  </si>
+  <si>
     <t>ishtirokchilarda o`zini “Men” ni anglashni va o`zini namoyon etishdagi qiynchiliklarni engib o`tish ko`nikmalarini rivojlantirish</t>
   </si>
   <si>
-    <t>ishtirokchilarda xayotiy maqsadlarini anglash, qayta tiklash orqali Inqirozli vaziyatlarda ruxiy bardoshlilik ko`nikmasini rivojlantirish</t>
-  </si>
-  <si>
-    <t>ishtirokchilarning o`z xayoti mazmunini anglashi jarayonida kelib chiqadigan ichki qarama- qarshiliklarni engib o`tish ko`nikmasini rivojlantirish</t>
-  </si>
-  <si>
-    <t>mashqning maqsadi ishtirokchilarda o`tmishdagi baxtsizliklar uchun javobgarlikni o`zi va xayotiy vaziyatlar o`rtasida to`g`ri taqsimlash</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
       <t>“ Xayot yo`li obrazi ” mashqi maqsadi nimadan iborat?</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
       <t>“ Bir oylik umr” mashqi maqsadi nimadan iborat?</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
       <t>“ Tarjimai xolni qayta yozish ” mashqi maqsadi?</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -642,27 +638,27 @@
     <t>tashqi ta’surotlarga bo‘lgan ehtiyoj</t>
   </si>
   <si>
+    <t>hatti-harakatga bo‘lgan ehtiyoj</t>
+  </si>
+  <si>
     <t>muloqotga bo‘lgan ehtiyoj</t>
   </si>
   <si>
-    <t>hatti-harakatga bo‘lgan ehtiyoj</t>
-  </si>
-  <si>
     <t>Bog‘cha yosh davrida bolaning psixik rivojlanishining harakatlantiruvchi kuch to`g`ri keltrilgan javobni toping</t>
   </si>
   <si>
+    <t>mehnatga bo`lgan ehtiyoj, tabiiy va madaniy ehtiyoj</t>
+  </si>
+  <si>
+    <t>tashqi ta’surotlarga bo‘lgan ehtiyoj, moddiy ehtiyoj, tabiiy ehtiyoj</t>
+  </si>
+  <si>
+    <t>hatti-harakatga bo‘lgan ehtiyoj, pulga ehtiyoj, mehrga ehtiyoj</t>
+  </si>
+  <si>
     <t>tashqi ta’surotlarga bo‘lgan ehtiyoj, muloqotga bo‘lgan ehtiyoj, hatti-harakatga bo‘lgan ehtiyoj</t>
   </si>
   <si>
-    <t>hatti-harakatga bo‘lgan ehtiyoj, pulga ehtiyoj, mehrga ehtiyoj</t>
-  </si>
-  <si>
-    <t>tashqi ta’surotlarga bo‘lgan ehtiyoj, moddiy ehtiyoj, tabiiy ehtiyoj</t>
-  </si>
-  <si>
-    <t>mehnatga bo`lgan ehtiyoj, tabiiy va madaniy ehtiyoj</t>
-  </si>
-  <si>
     <t>Psixologning MTM ishlarining o‘ziga xosligi bolaning…….</t>
   </si>
   <si>
@@ -672,18 +668,18 @@
     <t>Ko‘pincha psixologik yordamga bo‘lgan murojaat bola tomonidan emas balki kim tomonidan amalga oshiriladi?</t>
   </si>
   <si>
+    <t>onasi tomonidan</t>
+  </si>
+  <si>
+    <t>opa-ukasi tomonidan</t>
+  </si>
+  <si>
+    <t>muassasa rahbari tomonidan</t>
+  </si>
+  <si>
     <t>tarbiyachi yoki ota-ona tomonidan</t>
   </si>
   <si>
-    <t>onasi tomonidan</t>
-  </si>
-  <si>
-    <t>muassasa rahbari tomonidan</t>
-  </si>
-  <si>
-    <t>opa-ukasi tomonidan</t>
-  </si>
-  <si>
     <t>Psixologning MTM da olib boradigan muhim vazifalaridan biri bu?</t>
   </si>
   <si>
@@ -693,18 +689,18 @@
     <t>Bolaning maktabgacha ta`lim muassasasiga psixologik tayyorligi mezonlari sirasiga kirmaydigan javob variantini belgilang</t>
   </si>
   <si>
+    <t>Bolaning onasidan biroz muddatga holi qolishga rozilik bildirishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolaning o`z-o`ziga xizmat qilishning asosiy ko`nikmalarini egallaganligi </t>
+  </si>
+  <si>
+    <t>Boshqa bolalarga qiziqishning yuzaga kelishi</t>
+  </si>
+  <si>
     <t>Tashqi ta’surotlarga bo‘lgan ehtiyoj</t>
   </si>
   <si>
-    <t>Bolaning onasidan biroz muddatga holi qolishga rozilik bildirishi</t>
-  </si>
-  <si>
-    <t>Boshqa bolalarga qiziqishning yuzaga kelishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolaning o`z-o`ziga xizmat qilishning asosiy ko`nikmalarini egallaganligi </t>
-  </si>
-  <si>
     <t>Harakatli bo’shashtiruvchi faoliyat bu?</t>
   </si>
   <si>
@@ -735,12 +731,12 @@
     <t>Tashkiliy harakat</t>
   </si>
   <si>
+    <t>Shaxs motivatsiya sohasiga tasir etuvchi</t>
+  </si>
+  <si>
     <t>Ifodali-imitatsion</t>
   </si>
   <si>
-    <t>Shaxs motivatsiya sohasiga tasir etuvchi</t>
-  </si>
-  <si>
     <t>Regulyatsion mashqi qanday mashq?</t>
   </si>
   <si>
@@ -750,18 +746,18 @@
     <t>Harakatli b`oshashtiruvchi faoliyat (relaksatsiya) shug`ullanish vaqti qanchani tashkil etadi?</t>
   </si>
   <si>
+    <t>haftada 1 marotaba</t>
+  </si>
+  <si>
     <t>kuniga 5 -10 minut</t>
   </si>
   <si>
+    <t>Har 2 kunda bir marotaba</t>
+  </si>
+  <si>
     <t>10-30 minut</t>
   </si>
   <si>
-    <t>haftada 1 marotaba</t>
-  </si>
-  <si>
-    <t>Har 2 kunda bir marotaba</t>
-  </si>
-  <si>
     <t>Tashkiliy harakat (regulyatsion) mashqalar qancha vaqt shug`ullaniladi?</t>
   </si>
   <si>
@@ -777,6 +773,9 @@
     <t>Bolani maktabga tayorgarligida Psixik etuklik qaysi sohalar rivojlanishi bilan baholanadi?</t>
   </si>
   <si>
+    <t xml:space="preserve">biologik, Fiziologik yetuklik, ijtimoiy yetuklik, Jinsiy yetuklik </t>
+  </si>
+  <si>
     <t xml:space="preserve">Emotsional etuklik, Intelektual soha, Ijtimoiy etuklik </t>
   </si>
   <si>
@@ -786,24 +785,21 @@
     <t xml:space="preserve">fiziologik yetuklik, ijtimoiy yetuklik, Jinsiy yetuklik </t>
   </si>
   <si>
-    <t xml:space="preserve">biologik, Fiziologik yetuklik, ijtimoiy yetuklik, Jinsiy yetuklik </t>
-  </si>
-  <si>
     <t>Eng ishonchli psixologik profilaktika bu?</t>
   </si>
   <si>
+    <t>shu maqsadli rivojlantirishning o’rni va ahamiyati haqida tushuntirish ishlari olib borish juda muhim</t>
+  </si>
+  <si>
+    <t>boshqa bolalarga qiziqishning yuzaga kelishi</t>
+  </si>
+  <si>
     <t>bolaning o’z vaqtida normal oila va ijtimoiy tarbiya va ta'lim sharoitlaridagi rivojlanishidir</t>
   </si>
   <si>
-    <t>shu maqsadli rivojlantirishning o’rni va ahamiyati haqida tushuntirish ishlari olib borish juda muhim</t>
-  </si>
-  <si>
     <t>bolaning onasidan biroz muddatga holi qolishga rozilik bildirishi</t>
   </si>
   <si>
-    <t>boshqa bolalarga qiziqishning yuzaga kelishi</t>
-  </si>
-  <si>
     <t>“Barmoq” o’yinining maqsadi?</t>
   </si>
   <si>
@@ -819,33 +815,33 @@
     <t>Yangi o’quv tartibi bilan bog’liq bo’lgan qiyinchiliklar xato keltrilgan javobni toping?</t>
   </si>
   <si>
+    <t>O’qituvchi bilan o’quvchi munosabatlarida yuzaga kеladigan qiyinchiliklar</t>
+  </si>
+  <si>
+    <t>Bolaning sinf jamoasiga moslashuvdagi qiyinchilik</t>
+  </si>
+  <si>
+    <t>Bunday qiyinchilik ko’proq maktabgacha tarbiya muassasalariga bormagan bolalar uchun xosdir</t>
+  </si>
+  <si>
     <t>Bolaga maktabda o`quv qurollari uchun kam mablag` ajratish</t>
   </si>
   <si>
-    <t>Bunday qiyinchilik ko’proq maktabgacha tarbiya muassasalariga bormagan bolalar uchun xosdir</t>
-  </si>
-  <si>
-    <t>Bolaning sinf jamoasiga moslashuvdagi qiyinchilik</t>
-  </si>
-  <si>
-    <t>O’qituvchi bilan o’quvchi munosabatlarida yuzaga kеladigan qiyinchiliklar</t>
-  </si>
-  <si>
     <t>“Aylanalar” mashg’uloti maqsadi?</t>
   </si>
   <si>
     <t>Psixogimnastika mashqlari kim tomonidan aniqlangan, yaratilgan?</t>
   </si>
   <si>
+    <t>S.D.Nishonova</t>
+  </si>
+  <si>
+    <t>B.Sh.Baratov</t>
+  </si>
+  <si>
     <t>Gan Yunov</t>
   </si>
   <si>
-    <t>B.Sh.Baratov</t>
-  </si>
-  <si>
-    <t>S.D.Nishonova</t>
-  </si>
-  <si>
     <t>D.T. Davletshin</t>
   </si>
   <si>
@@ -855,18 +851,18 @@
     <t>Rеlaksatsiya mashqlari bu?</t>
   </si>
   <si>
+    <t>insonni emotsional holatlarini yaxshilash, o’zgalarni to’g’ri qabul qilish, emotsional holatni to’g’ri namoyon etish ko’zda tutiladi</t>
+  </si>
+  <si>
     <t>insondagi ruhiy zo’riqishni еngillatish, qayta tiklash</t>
   </si>
   <si>
+    <t>Shaxs ijtimoiylashuvini normallashtrish</t>
+  </si>
+  <si>
     <t>faoliyatga kirishishda ruhan qo’llab-quvvatlash, jismoniy faollikni oshirish, enеrgiyadagi muvozanatni saqlash uchun qo’llanadi</t>
   </si>
   <si>
-    <t>insonni emotsional holatlarini yaxshilash, o’zgalarni to’g’ri qabul qilish, emotsional holatni to’g’ri namoyon etish ko’zda tutiladi</t>
-  </si>
-  <si>
-    <t>Shaxs ijtimoiylashuvini normallashtrish</t>
-  </si>
-  <si>
     <t>Ishchanlikni oshirish mashqlari bu?</t>
   </si>
   <si>
@@ -876,57 +872,57 @@
     <t>Kichik maktab yoshidagi bolalarning emotsional hayoti nima ta’siri ostida kengayadi?</t>
   </si>
   <si>
+    <t>jinsiy tafovutlar natijasida</t>
+  </si>
+  <si>
+    <t>yosh farqi tasiri ostida</t>
+  </si>
+  <si>
     <t>ta’lim va tarbiyaning</t>
   </si>
   <si>
     <t>pedagogning qobilyati ostida</t>
   </si>
   <si>
-    <t>yosh farqi tasiri ostida</t>
-  </si>
-  <si>
-    <t>jinsiy tafovutlar natijasida</t>
-  </si>
-  <si>
     <t>Kichik maktab yoshidagi oʻquvchilarning his-tuygʻulari nimada namoyon bo`ladi?</t>
   </si>
   <si>
+    <t>yurish turishida</t>
+  </si>
+  <si>
+    <t>muloqotida</t>
+  </si>
+  <si>
     <t>faoliyatida</t>
   </si>
   <si>
     <t>gaplarida</t>
   </si>
   <si>
-    <t>yurish turishida</t>
-  </si>
-  <si>
-    <t>muloqotida</t>
-  </si>
-  <si>
     <t>Kichik maktab yoshidagi oʻquvchi doskaga chaqirilganda u oʻqib bеrishga yoki yozib bеrishga qoʻrqib, uyalib hijolat tortadigan oʻquvchilarni korreksiyalash qanday bo`ladi?</t>
   </si>
   <si>
+    <t>guruhdan ajratish</t>
+  </si>
+  <si>
     <t>tеz-tеz doskaga chiqarish</t>
   </si>
   <si>
+    <t>individual shug`ullanish</t>
+  </si>
+  <si>
     <t>test metodini qo`llash</t>
   </si>
   <si>
-    <t>guruhdan ajratish</t>
-  </si>
-  <si>
-    <t>individual shug`ullanish</t>
-  </si>
-  <si>
     <t>Tadqiqotlari qoʻrquv holatining namoyon boʻlishi masalalarini oʻrganishga yoʻnaltirilgan olimlar?</t>
   </si>
   <si>
+    <t>I.Pavlov, S.Dubrovina, SH.Baratov</t>
+  </si>
+  <si>
     <t>V.Shtеrn, K.Byullеr, E.Kirkpatrik</t>
   </si>
   <si>
-    <t>I.Pavlov, S.Dubrovina, SH.Baratov</t>
-  </si>
-  <si>
     <t>D.Davlatov, S.Nurmanov</t>
   </si>
   <si>
@@ -939,45 +935,45 @@
     <t>Qo`rquv</t>
   </si>
   <si>
+    <t>Ehtros</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hayajon </t>
   </si>
   <si>
-    <t>Ehtros</t>
-  </si>
-  <si>
     <t>Hayratlanish</t>
   </si>
   <si>
     <t>Qoʻrquvning sababi tahdid soluvchi xavfning mavjudligi yoki xavfsizlikni ta’minlovchi omilning yoʻqligi – kimning fikri?</t>
   </si>
   <si>
+    <t>D.Davlatov,</t>
+  </si>
+  <si>
+    <t>SH.Baratov</t>
+  </si>
+  <si>
     <t>Dj.Boulbi</t>
   </si>
   <si>
-    <t>SH.Baratov</t>
-  </si>
-  <si>
     <t>E.G`oziyev</t>
   </si>
   <si>
-    <t>D.Davlatov,</t>
-  </si>
-  <si>
     <t xml:space="preserve">“Tugʻilgan kuning bilan” mashqi maqsadi? </t>
   </si>
   <si>
+    <t>Bolani affеktiv muloqatga kiritishni qat’iy nazoratga olinadi</t>
+  </si>
+  <si>
+    <t>Muloqotga kirishishning murakkablashtrish</t>
+  </si>
+  <si>
     <t>Bolalarning bir-biri bilan munosabatlarini yaxshilashga, ochiq samimiy munosabatda boʻlishga oʻrgatadi</t>
   </si>
   <si>
     <t>Bola bilan affеktiv muloqotni oʻrnatish</t>
   </si>
   <si>
-    <t>Bolani affеktiv muloqatga kiritishni qat’iy nazoratga olinadi</t>
-  </si>
-  <si>
-    <t>Muloqotga kirishishning murakkablashtrish</t>
-  </si>
-  <si>
     <t>O`smirlik davri qaysi sinflarga to`g`ri keladi?</t>
   </si>
   <si>
@@ -999,30 +995,30 @@
     <t>11-12 yoshdan 14-15</t>
   </si>
   <si>
+    <t xml:space="preserve">7-15-yoshlar </t>
+  </si>
+  <si>
+    <t>18-23-yoshlar</t>
+  </si>
+  <si>
     <t>10-18 yoshlar</t>
   </si>
   <si>
-    <t>18-23-yoshlar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-15-yoshlar </t>
-  </si>
-  <si>
     <t>Ayrim maxsus psixologik adabiyotlarda «oʻtish davri», «ogʻir davr», «inqiroz davri» kabi nomlar bilan ham ataladigan davr bu?</t>
   </si>
   <si>
+    <t xml:space="preserve">Yoshlik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kichik maktab yoshi </t>
+  </si>
+  <si>
     <t>Oʻsmirlik</t>
   </si>
   <si>
     <t xml:space="preserve">Yetuklik </t>
   </si>
   <si>
-    <t xml:space="preserve">Yoshlik </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kichik maktab yoshi </t>
-  </si>
-  <si>
     <t>I.V.Dubrovinaning bеrgan ma’lumotlariga koʻra, oʻquv faoliyati motivlari pasayishi necha foiz o`quvchilarda kuzatiladi?</t>
   </si>
   <si>
@@ -1041,12 +1037,12 @@
     <t>1970 yilda kim tomonidan o’smirlar uchun mo’ljallangan patoxaraktеrologik so’rovnoma ishlab chiqilgan va sinovdan o’tkazilgan?</t>
   </si>
   <si>
+    <t>S.Dubrovina</t>
+  </si>
+  <si>
     <t>A.Е.Lichko</t>
   </si>
   <si>
-    <t>S.Dubrovina</t>
-  </si>
-  <si>
     <t xml:space="preserve">«Assotsiatsiya» mashqining maqsadi? </t>
   </si>
   <si>
@@ -1056,57 +1052,57 @@
     <t>Rus psixologi Е.A. Klimov oʻz izlanishlarini qaysi mavzuga bagʻishlagan?</t>
   </si>
   <si>
+    <t>Sotsialogiyaga</t>
+  </si>
+  <si>
     <t>Mеhnat va inson oʻrtasidagi oʻzaro munosabatlar</t>
   </si>
   <si>
     <t>Inson va tabiat munosabatlariga</t>
   </si>
   <si>
-    <t>Sotsialogiyaga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Defektalogiyaga </t>
   </si>
   <si>
     <t>Е.A. Klimov mеhnatning nechta asosiy xususiyatini ajratgan va ular yеr yuzidagi har qanday kasbga xos ekanligini ta’kidlagan.</t>
   </si>
   <si>
+    <t>oltita</t>
+  </si>
+  <si>
+    <t>uchta</t>
+  </si>
+  <si>
     <t>toʻrtta</t>
   </si>
   <si>
-    <t>uchta</t>
-  </si>
-  <si>
     <t>beshta</t>
   </si>
   <si>
-    <t>oltita</t>
-  </si>
-  <si>
     <t>Xolland metodikasi nimaga yo`naltrilgan?</t>
   </si>
   <si>
+    <t>Kasb-hunar dunyosini boyitishga</t>
+  </si>
+  <si>
+    <t>Kasb-hunarga yo`naltrishga</t>
+  </si>
+  <si>
     <t>Kasbiy moyillikni diagnostika qilishga</t>
   </si>
   <si>
-    <t>Kasb-hunarga yo`naltrishga</t>
-  </si>
-  <si>
     <t>Kasbiy konfliktlarni barxam etishga</t>
   </si>
   <si>
-    <t>Kasb-hunar dunyosini boyitishga</t>
-  </si>
-  <si>
     <t xml:space="preserve">“Kеlgindilar” oʻyinidan ko`zlangan maqsad? </t>
   </si>
   <si>
+    <t>Mеhnat va inson oʻrtasidagi oʻzaro munosabatlar o`rnatish</t>
+  </si>
+  <si>
     <t>Jamiyat va ayrim inson turmushida mеhnatning rolini koʻrsatib bеrish</t>
   </si>
   <si>
-    <t>Mеhnat va inson oʻrtasidagi oʻzaro munosabatlar o`rnatish</t>
-  </si>
-  <si>
     <t>60-70 yillarda O’zbekiston Pedagogik Fanlar Ilmiy Tekshirish instituti xodimlari P.P.Zimin, V.A.Tokareva, M.SH.Rasuleva, M.Dadajonovlar tomonidan qanday izlanishlar o`tkaziladi?</t>
   </si>
   <si>
@@ -1116,24 +1112,24 @@
     <t>Andijonda oilaviy tarbiyaga oid</t>
   </si>
   <si>
+    <t>Kelajak istiqbolli rejalarni aniqlashtrishga oid</t>
+  </si>
+  <si>
     <t>CHirchiq shahrida axloqiy tarbiyaga oid</t>
   </si>
   <si>
-    <t>Kelajak istiqbolli rejalarni aniqlashtrishga oid</t>
-  </si>
-  <si>
     <t>1989 yilda O’zbekistonda nima sababdan Nizomiy nomli TDPUda amaliyotchi psixologlar tayyorlash fakulg’teti ochildi?</t>
   </si>
   <si>
+    <t>Psixologlar maoshini oshirish maqsadida</t>
+  </si>
+  <si>
+    <t>Psixologlar mavqeyini mustahkamlash maqsadida</t>
+  </si>
+  <si>
     <t>Amaliyotchi psixologlarning etishmasligi sababli</t>
   </si>
   <si>
-    <t>Psixologlar maoshini oshirish maqsadida</t>
-  </si>
-  <si>
-    <t>Psixologlar mavqeyini mustahkamlash maqsadida</t>
-  </si>
-  <si>
     <t>Pedagogic g`oyalarni keng yoyish maqsadida</t>
   </si>
   <si>
@@ -1146,12 +1142,12 @@
     <t>G’.B.SHoumarov</t>
   </si>
   <si>
+    <t>N.S.Safaev</t>
+  </si>
+  <si>
     <t>V.M.Karimova</t>
   </si>
   <si>
-    <t>N.S.Safaev</t>
-  </si>
-  <si>
     <t>“Psixologiya” jurnalini qachondan chop etiladi?</t>
   </si>
   <si>
@@ -1161,27 +1157,27 @@
     <t>Nizomiy nomli TDPUda</t>
   </si>
   <si>
+    <t>Samarqandda</t>
+  </si>
+  <si>
+    <t>Andijonda</t>
+  </si>
+  <si>
     <t>O’zbekiston Pedagogik Fanlar Ilmiy Tekshirish institutida</t>
   </si>
   <si>
-    <t>Andijonda</t>
-  </si>
-  <si>
-    <t>Samarqandda</t>
-  </si>
-  <si>
     <t>Psixologik-pedagogik tashxis yo’nalishida qanday ishlar amalga oshiriladi?</t>
   </si>
   <si>
+    <t>etim va ota-ona qaramog’idan mahrum bo’lgan bolalarning psixologik reabilitatsiyasini tahminlash</t>
+  </si>
+  <si>
     <t>o’quvchilarning qiziqishlari, moyilliklari, istehdodi va iqtidoridagi asosiy yo’nalishlarni aniqlash</t>
   </si>
   <si>
     <t>o’quvchilardagi barcha salbiy holatlar va moyilliklarning oldini olish bo’yicha pedagog xodimlar va ota-onalar uchun tavsiyalar ishlab chiqish</t>
   </si>
   <si>
-    <t>etim va ota-ona qaramog’idan mahrum bo’lgan bolalarning psixologik reabilitatsiyasini tahminlash</t>
-  </si>
-  <si>
     <t>o’quvchilarning individual rivojlanishidagi muammolarni hal etish bo’yicha barcha tahlim jarayoni qatnashchilariga maslahatlar berish</t>
   </si>
   <si>
@@ -1251,13 +1247,13 @@
     <t>Bundaylar ko‘zga tashlanib yurishni yoqtiradilar. O‘zlarini shunga mos tutishadi.</t>
   </si>
   <si>
+    <t>go‘yo sizga yaxshilik qilmoqchidek bo‘ladi-yu, yuragining tubida bundan afsuslanadi</t>
+  </si>
+  <si>
+    <t>o‘zgalar aybini axtaruvchi odam, u doimo o‘zini xaq deb biladi</t>
+  </si>
+  <si>
     <t>qandaydir nayrang bilan odamlarni qiynovchi odam. Kimdir noto‘g‘ri ish qilgan bo‘lsa adolat o‘rnatmoqchi bo‘ladi</t>
-  </si>
-  <si>
-    <t>go‘yo sizga yaxshilik qilmoqchidek bo‘ladi-yu, yuragining tubida bundan afsuslanadi</t>
-  </si>
-  <si>
-    <t>o‘zgalar aybini axtaruvchi odam, u doimo o‘zini xaq deb biladi</t>
   </si>
   <si>
     <t>«Nedant» tip bu?</t>
@@ -1320,59 +1316,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1380,138 +1367,118 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="5">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -1535,113 +1502,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1782,34 +1655,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB241A-E873-45D5-93F1-A5AD37233488}">
-  <dimension ref="A1:F145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="29.0"/>
+    <col customWidth="1" min="2" max="2" width="25.43"/>
+    <col customWidth="1" min="3" max="3" width="29.71"/>
+    <col customWidth="1" min="4" max="4" width="22.57"/>
+    <col customWidth="1" min="5" max="5" width="29.71"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,67 +1696,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1905,31 +1772,31 @@
       <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1937,59 +1804,59 @@
         <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1997,19 +1864,19 @@
         <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
@@ -2020,56 +1887,56 @@
         <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="7">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D12" s="7">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>62</v>
       </c>
@@ -2077,59 +1944,59 @@
         <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
@@ -2137,59 +2004,59 @@
         <v>77</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>88</v>
       </c>
@@ -2197,239 +2064,239 @@
         <v>87</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="7">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D24" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="E24" s="7">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="D30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>124</v>
       </c>
@@ -2440,24 +2307,24 @@
         <v>126</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>126</v>
@@ -2465,31 +2332,31 @@
       <c r="E33" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>131</v>
       </c>
@@ -2497,19 +2364,19 @@
         <v>126</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>132</v>
       </c>
@@ -2520,16 +2387,16 @@
         <v>134</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>137</v>
       </c>
@@ -2543,13 +2410,13 @@
         <v>134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>140</v>
       </c>
@@ -2557,7 +2424,7 @@
         <v>134</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>138</v>
@@ -2565,16 +2432,16 @@
       <c r="E38" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>138</v>
@@ -2585,11 +2452,11 @@
       <c r="E39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>143</v>
       </c>
@@ -2597,7 +2464,7 @@
         <v>142</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>144</v>
@@ -2605,16 +2472,16 @@
       <c r="E40" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>146</v>
@@ -2625,19 +2492,19 @@
       <c r="E41" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>138</v>
@@ -2645,16 +2512,16 @@
       <c r="E42" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>152</v>
@@ -2665,11 +2532,11 @@
       <c r="E43" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>153</v>
       </c>
@@ -2680,21 +2547,21 @@
         <v>150</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>150</v>
@@ -2705,11 +2572,11 @@
       <c r="E45" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>156</v>
       </c>
@@ -2725,11 +2592,11 @@
       <c r="E46" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>158</v>
       </c>
@@ -2745,11 +2612,11 @@
       <c r="E47" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>160</v>
       </c>
@@ -2765,11 +2632,11 @@
       <c r="E48" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>162</v>
       </c>
@@ -2785,11 +2652,11 @@
       <c r="E49" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>164</v>
       </c>
@@ -2805,11 +2672,11 @@
       <c r="E50" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>166</v>
       </c>
@@ -2825,111 +2692,111 @@
       <c r="E51" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="52" ht="17.25" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53" ht="17.25" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>176</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="F53" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>181</v>
       </c>
@@ -2940,36 +2807,36 @@
         <v>183</v>
       </c>
       <c r="D57" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>191</v>
       </c>
@@ -2977,79 +2844,79 @@
         <v>183</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="F59" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="61" ht="17.25" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62" ht="17.25" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>200</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>203</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="63" ht="17.25" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>205</v>
       </c>
@@ -3065,11 +2932,11 @@
       <c r="E63" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64" ht="17.25" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>210</v>
       </c>
@@ -3085,11 +2952,11 @@
       <c r="E64" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="65" ht="17.25" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>211</v>
       </c>
@@ -3105,11 +2972,11 @@
       <c r="E65" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66" ht="17.25" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>212</v>
       </c>
@@ -3120,16 +2987,16 @@
         <v>214</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67" ht="17.25" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>217</v>
       </c>
@@ -3140,16 +3007,16 @@
         <v>213</v>
       </c>
       <c r="D67" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68" ht="17.25" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>218</v>
       </c>
@@ -3157,139 +3024,139 @@
         <v>213</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>214</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="70" ht="17.25" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>225</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="F70" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="71" ht="17.25" customHeight="1">
       <c r="A71" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="72" ht="17.25" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B72" s="7">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C72" s="7">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D72" s="7">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="E72" s="7">
-        <v>3</v>
-      </c>
-      <c r="F72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="73" ht="17.25" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="D74" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="75" ht="17.25" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>238</v>
       </c>
@@ -3300,24 +3167,24 @@
         <v>239</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="76" ht="17.25" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>241</v>
@@ -3325,31 +3192,31 @@
       <c r="E76" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="77" ht="17.25" customHeight="1">
       <c r="A77" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="78" ht="17.25" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>247</v>
       </c>
@@ -3357,187 +3224,187 @@
         <v>176</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="F78" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="79" ht="17.25" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>248</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="80" ht="17.25" customHeight="1">
       <c r="A80" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B80" s="7">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C80" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D80" s="7">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E80" s="7">
-        <v>6</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="81" ht="17.25" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D81" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="82" ht="17.25" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="17.25" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B83" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="17.25" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85" ht="17.25" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>266</v>
       </c>
       <c r="B85" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="86" ht="17.25" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="87" ht="17.25" customHeight="1">
       <c r="A87" s="6" t="s">
         <v>276</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>279</v>
@@ -3545,11 +3412,11 @@
       <c r="E87" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88" ht="17.25" customHeight="1">
       <c r="A88" s="6" t="s">
         <v>281</v>
       </c>
@@ -3557,59 +3424,59 @@
         <v>282</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>286</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+      <c r="F89" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90" ht="17.25" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>291</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91" ht="17.25" customHeight="1">
       <c r="A91" s="6" t="s">
         <v>296</v>
       </c>
@@ -3625,11 +3492,11 @@
       <c r="E91" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92" ht="17.25" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>301</v>
       </c>
@@ -3637,39 +3504,39 @@
         <v>302</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>304</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93" ht="17.25" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>306</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94" ht="17.25" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>311</v>
       </c>
@@ -3685,31 +3552,31 @@
       <c r="E94" s="10">
         <v>0.2</v>
       </c>
-      <c r="F94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="95" ht="17.25" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>313</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="96" ht="17.25" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>314</v>
       </c>
@@ -3717,7 +3584,7 @@
         <v>280</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>315</v>
@@ -3725,31 +3592,31 @@
       <c r="E96" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97" ht="17.25" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>316</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="E97" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="F97" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98" ht="17.25" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>319</v>
       </c>
@@ -3757,99 +3624,99 @@
         <v>320</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B99" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="100" ht="17.25" customHeight="1">
       <c r="A100" s="6" t="s">
         <v>326</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>328</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="F100" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101" ht="17.25" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>331</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="F101" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102" ht="17.25" customHeight="1">
       <c r="A102" s="6" t="s">
         <v>336</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C102" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="103" ht="17.25" customHeight="1">
       <c r="A103" s="6" t="s">
         <v>339</v>
       </c>
@@ -3860,36 +3727,36 @@
         <v>341</v>
       </c>
       <c r="D103" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104" ht="17.25" customHeight="1">
       <c r="A104" s="6" t="s">
         <v>344</v>
       </c>
       <c r="B104" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105" ht="17.25" customHeight="1">
       <c r="A105" s="6" t="s">
         <v>349</v>
       </c>
@@ -3900,36 +3767,36 @@
         <v>351</v>
       </c>
       <c r="D105" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106" ht="17.25" customHeight="1">
       <c r="A106" s="6" t="s">
         <v>354</v>
       </c>
       <c r="B106" s="7">
-        <v>2015</v>
+        <v>2015.0</v>
       </c>
       <c r="C106" s="7">
-        <v>2008</v>
+        <v>2008.0</v>
       </c>
       <c r="D106" s="7">
-        <v>2016</v>
+        <v>2016.0</v>
       </c>
       <c r="E106" s="7">
-        <v>2010</v>
-      </c>
-      <c r="F106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2010.0</v>
+      </c>
+      <c r="F106" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="6" t="s">
         <v>355</v>
       </c>
@@ -3937,39 +3804,39 @@
         <v>356</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>358</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108" ht="17.25" customHeight="1">
       <c r="A108" s="6" t="s">
         <v>360</v>
       </c>
       <c r="B108" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="109" ht="17.25" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>365</v>
       </c>
@@ -3985,31 +3852,31 @@
       <c r="E109" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110" ht="17.25" customHeight="1">
       <c r="A110" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>364</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+      <c r="F110" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="111" ht="17.25" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>371</v>
       </c>
@@ -4025,11 +3892,11 @@
       <c r="E111" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="112" ht="17.25" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>373</v>
       </c>
@@ -4045,11 +3912,11 @@
       <c r="E112" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113" ht="17.25" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>374</v>
       </c>
@@ -4065,19 +3932,19 @@
       <c r="E113" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114" ht="17.25" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>375</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>364</v>
@@ -4085,11 +3952,11 @@
       <c r="E114" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115" ht="17.25" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>377</v>
       </c>
@@ -4097,19 +3964,19 @@
         <v>376</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="116" ht="17.25" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>379</v>
       </c>
@@ -4125,11 +3992,11 @@
       <c r="E116" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117" ht="17.25" customHeight="1">
       <c r="A117" s="8" t="s">
         <v>381</v>
       </c>
@@ -4137,19 +4004,19 @@
         <v>382</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118" ht="17.25" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>383</v>
       </c>
@@ -4165,11 +4032,11 @@
       <c r="E118" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="119" ht="17.25" customHeight="1">
       <c r="A119" s="6" t="s">
         <v>385</v>
       </c>
@@ -4177,79 +4044,79 @@
         <v>386</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="E119" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120" ht="17.25" customHeight="1">
       <c r="A120" s="6" t="s">
         <v>390</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>391</v>
       </c>
       <c r="D120" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="121" ht="17.25" customHeight="1">
       <c r="A121" s="6" t="s">
         <v>392</v>
       </c>
       <c r="B121" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="122" ht="17.25" customHeight="1">
       <c r="A122" s="6" t="s">
         <v>394</v>
       </c>
       <c r="B122" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>395</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="F122" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="123" ht="17.25" customHeight="1">
       <c r="A123" s="6" t="s">
         <v>396</v>
       </c>
@@ -4257,79 +4124,79 @@
         <v>397</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124" ht="17.25" customHeight="1">
       <c r="A124" s="6" t="s">
         <v>398</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>399</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="F124" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="125" ht="17.25" customHeight="1">
       <c r="A125" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>401</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="F125" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126" ht="17.25" customHeight="1">
       <c r="A126" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B126" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="127" ht="17.25" customHeight="1">
       <c r="A127" s="6" t="s">
         <v>404</v>
       </c>
@@ -4337,19 +4204,19 @@
         <v>405</v>
       </c>
       <c r="C127" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128" ht="17.25" customHeight="1">
       <c r="A128" s="6" t="s">
         <v>406</v>
       </c>
@@ -4363,13 +4230,13 @@
         <v>405</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="F128" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="129" ht="17.25" customHeight="1">
       <c r="A129" s="6" t="s">
         <v>407</v>
       </c>
@@ -4377,7 +4244,7 @@
         <v>403</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>397</v>
@@ -4385,11 +4252,11 @@
       <c r="E129" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="130" ht="17.25" customHeight="1">
       <c r="A130" s="6" t="s">
         <v>408</v>
       </c>
@@ -4403,35 +4270,16 @@
         <v>403</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>388</v>
+      </c>
+      <c r="F130" s="5">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>